--- a/XTSTester-tool/data/三方库测试表.xlsx
+++ b/XTSTester-tool/data/三方库测试表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,1320 +27,1323 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="526">
   <si>
     <t>三方库名称</t>
   </si>
   <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>adler-32</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/Adler32Demo</t>
+  </si>
+  <si>
+    <t>ahocorasick</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/ahocorasick</t>
+  </si>
+  <si>
+    <t>aki</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/aki</t>
+  </si>
+  <si>
+    <t>arangojs</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/arangojs</t>
+  </si>
+  <si>
+    <t>arouter-api-onActivityResult</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/arouter-api-onActivityResult</t>
+  </si>
+  <si>
+    <t>axios</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_axios</t>
+  </si>
+  <si>
+    <t>behaviotree</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/behaviorTree</t>
+  </si>
+  <si>
+    <t>bignumberjsDemo</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/bignumberjsDemo</t>
+  </si>
+  <si>
+    <t>brotli</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/brotli</t>
+  </si>
+  <si>
+    <t>CaverPhone</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/CaverPhone</t>
+  </si>
+  <si>
+    <t>cborjsDemo</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/cborjsDemo</t>
+  </si>
+  <si>
+    <t>coap</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/ohos_coap</t>
+  </si>
+  <si>
+    <t>CommonsCompress</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/CommonsCompress</t>
+  </si>
+  <si>
+    <t>crypto-js</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_crypto_js</t>
+  </si>
+  <si>
+    <t>dataorm</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_dataorm</t>
+  </si>
+  <si>
+    <t>dayjs</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/dayjs</t>
+  </si>
+  <si>
+    <t>Easyrelpace</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/Easyrelpace</t>
+  </si>
+  <si>
+    <t>EventBus</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/EventBus</t>
+  </si>
+  <si>
+    <t>eventemitter3</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/EventEmitter3Demo</t>
+  </si>
+  <si>
+    <t>fileio-extra</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_fileio-extra</t>
+  </si>
+  <si>
+    <t>hex-encode-decodeDemo</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/hex-encode-decodeDemo</t>
+  </si>
+  <si>
+    <t>hi-base32Demo</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/hi-base32Demo</t>
+  </si>
+  <si>
+    <t>ijkplayer</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_ijkplayer</t>
+  </si>
+  <si>
+    <t>ImageKnife</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/ImageKnife</t>
+  </si>
+  <si>
+    <t>ImageViewZoom</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_image_view_zoom</t>
+  </si>
+  <si>
+    <t>is-png</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/is-png</t>
+  </si>
+  <si>
+    <t>is-webp</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/is-webp</t>
+  </si>
+  <si>
+    <t>jmustache</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_jmustache</t>
+  </si>
+  <si>
+    <t>jsDiffDemo</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/jsDiffDemo</t>
+  </si>
+  <si>
+    <t>js-md2Demo</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/js-md2Demo</t>
+  </si>
+  <si>
+    <t>js-md5Demo</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/js-md5Demo</t>
+  </si>
+  <si>
+    <t>json-schema</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/json-schema</t>
+  </si>
+  <si>
+    <t>js-sha256Demo</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/js-sha256Demo</t>
+  </si>
+  <si>
+    <t>JsSha1Demo</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/JsSha1Demo</t>
+  </si>
+  <si>
+    <t>lib-token</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/js-tokens</t>
+  </si>
+  <si>
+    <t>juniversalchardet</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/juniversalchardet</t>
+  </si>
+  <si>
+    <t>LargeImage</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/LargeImage</t>
+  </si>
+  <si>
+    <t>levenDemo</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/levenDemo</t>
+  </si>
+  <si>
+    <t>LiveEventBus</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_live_event_bus</t>
+  </si>
+  <si>
+    <t>lottieETS</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/lottieArkTS</t>
+  </si>
+  <si>
+    <t>lz4jsDemo</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/lz4jsDemo</t>
+  </si>
+  <si>
+    <t>ohos_material_dialogs</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_material_dialogs</t>
+  </si>
+  <si>
+    <t>MaterialProgressBar</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_material_progress_bar</t>
+  </si>
+  <si>
+    <t>MetaPhone</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/MetaPhone</t>
+  </si>
+  <si>
+    <t>MMKV</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/MMKV</t>
+  </si>
+  <si>
+    <t>msgpack-javascript</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/msgpack-javascript</t>
+  </si>
+  <si>
+    <t>ohos_disklrucache</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_disklrucache</t>
+  </si>
+  <si>
+    <t>ohos_mqtt</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/ohos_mqtt</t>
+  </si>
+  <si>
+    <t>ohos-gif-drawable</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_gif-drawable</t>
+  </si>
+  <si>
+    <t>ohos_mbassador</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_mbassador</t>
+  </si>
+  <si>
+    <t>ohos_MPChart</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/ohos_mpchart</t>
+  </si>
+  <si>
+    <t>ohos_svg</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_svg</t>
+  </si>
+  <si>
+    <t>ohosutilcode</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/utilCode</t>
+  </si>
+  <si>
+    <t>leap-year</t>
+  </si>
+  <si>
+    <t>imtype</t>
+  </si>
+  <si>
+    <t>randomColor</t>
+  </si>
+  <si>
+    <t>gcoord</t>
+  </si>
+  <si>
+    <t>memory-cache</t>
+  </si>
+  <si>
+    <t>time-ampm</t>
+  </si>
+  <si>
+    <t>okio</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/okio</t>
+  </si>
+  <si>
+    <t>overscroll-decor</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/overscroll-decor</t>
+  </si>
+  <si>
+    <t>pakoDemo</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/pakoDemo</t>
+  </si>
+  <si>
+    <t>PathToRegexpDemo</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/PathToRegexpDemo</t>
+  </si>
+  <si>
+    <t>pinyin4js</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/pinyin4js</t>
+  </si>
+  <si>
+    <t>protobufjs</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/protobuf</t>
+  </si>
+  <si>
+    <t>pcx-js</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/pcx-js</t>
+  </si>
+  <si>
+    <t>pdfViewer</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/pdfViewer</t>
+  </si>
+  <si>
+    <t>percentage-regex</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/percentage-regex</t>
+  </si>
+  <si>
+    <t>PullToRefresh</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_pull_to_refresh</t>
+  </si>
+  <si>
+    <t>qr-code-generator</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/qr-code-generator</t>
+  </si>
+  <si>
+    <t>RoundedImageView</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/RoundedImageView</t>
+  </si>
+  <si>
+    <t>snappyjsDemo</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/snappyjsDemo</t>
+  </si>
+  <si>
+    <t>soundex-code</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/soundex-code</t>
+  </si>
+  <si>
+    <t>subsampling_scale_image_view</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_subsampling_scale_image_view</t>
+  </si>
+  <si>
+    <t>text-encoding</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/textEncodingDemo</t>
+  </si>
+  <si>
+    <t>TextLayoutBuilder</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_text_layout_builder</t>
+  </si>
+  <si>
+    <t>unrar</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/unrar</t>
+  </si>
+  <si>
+    <t>validator.js</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/validator</t>
+  </si>
+  <si>
+    <t>XmlGraphicsBatik</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/XmlGraphicsBatik</t>
+  </si>
+  <si>
+    <t>xslt-processor</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/xslt-processor</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>zxing</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/zxing</t>
+  </si>
+  <si>
+    <t>zxing-text-encodingDemo</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/zxing-text-encodingDemo</t>
+  </si>
+  <si>
+    <t>inversifyDemo</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/inversifyDemo</t>
+  </si>
+  <si>
+    <t>inversify_inject_decorators-demo</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/inversify_inject_decorators-demo</t>
+  </si>
+  <si>
+    <t>inversify-binding-decorators-demo</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/inversify-binding-decorators-demo</t>
+  </si>
+  <si>
+    <t>amf</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/amf</t>
+  </si>
+  <si>
+    <t>mp4parser</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/mp4parser</t>
+  </si>
+  <si>
+    <t>utf8</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/utf8</t>
+  </si>
+  <si>
+    <t>jama</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/jama</t>
+  </si>
+  <si>
+    <t>banner</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_banner</t>
+  </si>
+  <si>
+    <t>highlightguide</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_highlightguide</t>
+  </si>
+  <si>
+    <t>class-transformer</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/class-transformer</t>
+  </si>
+  <si>
+    <t>mime</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/mime</t>
+  </si>
+  <si>
+    <t>compare-versions</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/compare-versions</t>
+  </si>
+  <si>
+    <t>jsonwebtoken</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_jsonwebtoken</t>
+  </si>
+  <si>
+    <t>dialogs</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/dialogs</t>
+  </si>
+  <si>
+    <t>protobuf_format</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/protobuf_format</t>
+  </si>
+  <si>
+    <t>xml_js</t>
+  </si>
+  <si>
+    <t>sax</t>
+  </si>
+  <si>
+    <t>ohos_video_trimmer</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_video_trimmer</t>
+  </si>
+  <si>
+    <t>ohos_videocompressor</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_videocompressor</t>
+  </si>
+  <si>
+    <t>BasicFtp</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/BasicFtp</t>
+  </si>
+  <si>
+    <t>newsie</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/newsie</t>
+  </si>
+  <si>
+    <t>node-imap</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/node-imap</t>
+  </si>
+  <si>
+    <t>node-pop3</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/node-pop3</t>
+  </si>
+  <si>
+    <t>emailjs</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/emailjs</t>
+  </si>
+  <si>
+    <t>commons-cli</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/commons-cli</t>
+  </si>
+  <si>
+    <t>CircleIndicator</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_circle_indicator</t>
+  </si>
+  <si>
+    <t>dd-plist</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/dd-plist</t>
+  </si>
+  <si>
+    <t>hamcrest</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/Hamcrest</t>
+  </si>
+  <si>
+    <t>jtar</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/jtar</t>
+  </si>
+  <si>
+    <t>ohos-SwipeLayout</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos-SwipeLayout</t>
+  </si>
+  <si>
+    <t>mp3agic</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/mp3agic</t>
+  </si>
+  <si>
+    <t>base64</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_base64</t>
+  </si>
+  <si>
+    <t>node-polyfill</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_polyfill</t>
+  </si>
+  <si>
+    <t>smack</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/ohos_smack</t>
+  </si>
+  <si>
+    <t>epublib</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/epublib</t>
+  </si>
+  <si>
+    <t>pinyin-pro</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/pinyinProDemo</t>
+  </si>
+  <si>
+    <t>base64-js</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/base64-js</t>
+  </si>
+  <si>
+    <t>commonmark</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/commonmark</t>
+  </si>
+  <si>
+    <t>icu4j</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/icu4j</t>
+  </si>
+  <si>
+    <t>LibphoneNumber</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/LibphoneNumber</t>
+  </si>
+  <si>
+    <t>guava</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/lodashDemo</t>
+  </si>
+  <si>
+    <t>creals</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/mathjsDemo</t>
+  </si>
+  <si>
+    <t>node-csv</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/node-csv</t>
+  </si>
+  <si>
+    <t>Drools</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/nodeRulesDemo</t>
+  </si>
+  <si>
+    <t>reflect-metadata</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/reflect-metadata</t>
+  </si>
+  <si>
+    <t>snakeyaml</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/snakeyaml_bak</t>
+  </si>
+  <si>
+    <t>dom4j</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/xml2jsDemo</t>
+  </si>
+  <si>
+    <t>checksum</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_checksum</t>
+  </si>
+  <si>
+    <t>CircleImageView</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/CircleImageView</t>
+  </si>
+  <si>
+    <t>FastBle</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/FastBle</t>
+  </si>
+  <si>
+    <t>flexsearch-ohos</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/flexsearch-ohos</t>
+  </si>
+  <si>
+    <t>jchardet</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/jchardet</t>
+  </si>
+  <si>
+    <t>jwks-rsa</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/jwks-rsa</t>
+  </si>
+  <si>
+    <t>logback</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_logback</t>
+  </si>
+  <si>
+    <t>metadata-extractor</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/metadata-extractor</t>
+  </si>
+  <si>
+    <t>mixpanel-ohos</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/mixpanel-ohos</t>
+  </si>
+  <si>
+    <t>MultiType</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/MultiType</t>
+  </si>
+  <si>
+    <t>commons-fileupload</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_commons-fileupload</t>
+  </si>
+  <si>
+    <t>ohos-autofittextview</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos-autofittextview</t>
+  </si>
+  <si>
+    <t>ohos-PickerView</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos-PickerView</t>
+  </si>
+  <si>
+    <t>okdownload</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/okdownload</t>
+  </si>
+  <si>
+    <t>rebound</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/rebound</t>
+  </si>
+  <si>
+    <t>recyclerview-animators</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/recyclerview-animators</t>
+  </si>
+  <si>
+    <t>retrofit</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/retrofit</t>
+  </si>
+  <si>
+    <t>RocketChat</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/RocketChat</t>
+  </si>
+  <si>
+    <t>shimmer-ohos</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/shimmer-ohos</t>
+  </si>
+  <si>
+    <t>SmartRefreshLayout</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/SmartRefreshLayout</t>
+  </si>
+  <si>
+    <t>stun</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/stun-server</t>
+  </si>
+  <si>
+    <t>thrift</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/thrift</t>
+  </si>
+  <si>
+    <t>vcard</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/VCard</t>
+  </si>
+  <si>
+    <t>vlayout</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_vlayout</t>
+  </si>
+  <si>
+    <t>WheelPicker</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/WheelPicker_bak</t>
+  </si>
+  <si>
+    <t>xutils</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/xutils_bak</t>
+  </si>
+  <si>
+    <t>smbj</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/smbj</t>
+  </si>
+  <si>
+    <t>DanmakuFlameMaster</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_danmaku_flame_master</t>
+  </si>
+  <si>
+    <t>RecyclerViewPager</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/RecyclerViewPager</t>
+  </si>
+  <si>
+    <t>ohos-beacon-library</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos-beacon-library</t>
+  </si>
+  <si>
+    <t>box2d</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/box2d</t>
+  </si>
+  <si>
+    <t>socketio</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/socketio</t>
+  </si>
+  <si>
+    <t>json-bigintDemo</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/json-bigintDemo</t>
+  </si>
+  <si>
+    <t>rxjs</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/RxJS</t>
+  </si>
+  <si>
+    <t>OhosVideoCache</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/OhosVideoCache</t>
+  </si>
+  <si>
+    <t>postcss</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/postcss</t>
+  </si>
+  <si>
+    <t>htmlparser2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/htmlparser2</t>
+  </si>
+  <si>
+    <t>avro</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/avro</t>
+  </si>
+  <si>
+    <t>Jackrabbit</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/jackrabbit</t>
+  </si>
+  <si>
+    <t>jmespathDemo</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/jmespathDemo</t>
+  </si>
+  <si>
+    <t>js-joda</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/js-joda</t>
+  </si>
+  <si>
+    <t>owasp-java-html-sanitiza</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/sanitize-html</t>
+  </si>
+  <si>
+    <t>htmltoxml</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/jsoup</t>
+  </si>
+  <si>
+    <t>ohos_mail</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/ohos_mail</t>
+  </si>
+  <si>
+    <t>parser-html-json</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/parserHtmlJsonDemo</t>
+  </si>
+  <si>
+    <t>d3-ease</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/d3JsEasingDemo</t>
+  </si>
+  <si>
+    <t>ohos_ntp</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/ohos_ntp</t>
+  </si>
+  <si>
+    <t>eventsource</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/eventsource</t>
+  </si>
+  <si>
+    <t>httpclient</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/httpclient</t>
+  </si>
+  <si>
+    <t>entities</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/entities</t>
+  </si>
+  <si>
+    <t>mdurl</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/mdurl</t>
+  </si>
+  <si>
+    <t>string.prototype.repeat</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/string.prototype.repeat</t>
+  </si>
+  <si>
+    <t>events</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/events</t>
+  </si>
+  <si>
+    <t>timers</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/timers</t>
+  </si>
+  <si>
+    <t>GSYVideoPlayer</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/GSYVideoPlayer</t>
+  </si>
+  <si>
+    <t>mars</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/mars</t>
+  </si>
+  <si>
+    <t>asn1_der</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/asn1Demo</t>
+  </si>
+  <si>
+    <t>underscore</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/underscore</t>
+  </si>
+  <si>
+    <t>is-plain-object</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/is_plain_object</t>
+  </si>
+  <si>
+    <t>pvutils</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/pvutils</t>
+  </si>
+  <si>
+    <t>buffer</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/buffer</t>
+  </si>
+  <si>
+    <t>ieee754</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/ieee754</t>
+  </si>
+  <si>
+    <t>xmlbuilder</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/Xmlbuilder</t>
+  </si>
+  <si>
+    <t>Sax</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/Sax</t>
+  </si>
+  <si>
+    <t>querystringify</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/querystringify</t>
+  </si>
+  <si>
+    <t>requires-port</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/requires-port</t>
+  </si>
+  <si>
+    <t>seedrandom</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/seedrandom</t>
+  </si>
+  <si>
+    <t>lodash.isequal</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/lodash_IsEqual</t>
+  </si>
+  <si>
+    <t>lodash.clonedeep</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/lodash_Clonedeep</t>
+  </si>
+  <si>
+    <t>xmldom</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/xmldom</t>
+  </si>
+  <si>
+    <t>minimist</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/minimist</t>
+  </si>
+  <si>
+    <t>domhandler</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/Domhandler</t>
+  </si>
+  <si>
+    <t>domutils</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/domutils</t>
+  </si>
+  <si>
+    <t>domelementtype</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/domelementtype</t>
+  </si>
+  <si>
+    <t>dom-serializer</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/dom_serializer</t>
+  </si>
+  <si>
+    <t>protobufjs_aspromise</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/protobufjs_aspromise</t>
+  </si>
+  <si>
+    <t>protobufjs_base64</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/protobufjs_base64</t>
+  </si>
+  <si>
+    <t>protobufjs_eventemitter</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/protobufjs_eventemitter</t>
+  </si>
+  <si>
+    <t>protobufjs_float</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/protobufjs_float</t>
+  </si>
+  <si>
+    <t>protobufjs_path</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/protobufjs_path</t>
+  </si>
+  <si>
+    <t>protobufjs_pool</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/protobufjs_pool</t>
+  </si>
+  <si>
+    <t>protobufjs_utf8</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/protobufjs_utf8</t>
+  </si>
+  <si>
+    <t>ohos_apng</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_apng</t>
+  </si>
+  <si>
+    <t>@types/cbor-js</t>
+  </si>
+  <si>
+    <t>amqplib</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/amqplib</t>
+  </si>
+  <si>
+    <t>opencsv</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/opencsv</t>
+  </si>
+  <si>
+    <t>ohos_msgpack</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/ohos_msgpack</t>
+  </si>
+  <si>
+    <t>ohos_libpag</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-sig/ohos_libpag</t>
+  </si>
+  <si>
+    <t>ohos_minizip</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/ohos_minizip</t>
+  </si>
+  <si>
+    <t>ohos_luaarkts</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/ohos_luaarkts</t>
+  </si>
+  <si>
+    <t>ohos_ftp_srv</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/ohos_ftp_srv</t>
+  </si>
+  <si>
+    <t>axiosforhttpclient</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openharmony-tpc/httpclient/tree/master/axiosForHttpclient</t>
+  </si>
+  <si>
+    <t>ohos_sdl2</t>
+  </si>
+  <si>
     <t>https://gitcode.com/openharmony-sig/ohos_sdl2</t>
-  </si>
-  <si>
-    <t>测试结果</t>
-  </si>
-  <si>
-    <t>adler-32</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/Adler32Demo</t>
-  </si>
-  <si>
-    <t>ahocorasick</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/ahocorasick</t>
-  </si>
-  <si>
-    <t>aki</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/aki</t>
-  </si>
-  <si>
-    <t>arangojs</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/arangojs</t>
-  </si>
-  <si>
-    <t>arouter-api-onActivityResult</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/arouter-api-onActivityResult</t>
-  </si>
-  <si>
-    <t>axios</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_axios</t>
-  </si>
-  <si>
-    <t>behaviotree</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/behaviorTree</t>
-  </si>
-  <si>
-    <t>bignumberjsDemo</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/bignumberjsDemo</t>
-  </si>
-  <si>
-    <t>brotli</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/brotli</t>
-  </si>
-  <si>
-    <t>CaverPhone</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/CaverPhone</t>
-  </si>
-  <si>
-    <t>cborjsDemo</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/cborjsDemo</t>
-  </si>
-  <si>
-    <t>coap</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/ohos_coap</t>
-  </si>
-  <si>
-    <t>CommonsCompress</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/CommonsCompress</t>
-  </si>
-  <si>
-    <t>crypto-js</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_crypto_js</t>
-  </si>
-  <si>
-    <t>dataorm</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_dataorm</t>
-  </si>
-  <si>
-    <t>dayjs</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/dayjs</t>
-  </si>
-  <si>
-    <t>Easyrelpace</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/Easyrelpace</t>
-  </si>
-  <si>
-    <t>EventBus</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/EventBus</t>
-  </si>
-  <si>
-    <t>eventemitter3</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/EventEmitter3Demo</t>
-  </si>
-  <si>
-    <t>fileio-extra</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_fileio-extra</t>
-  </si>
-  <si>
-    <t>hex-encode-decodeDemo</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/hex-encode-decodeDemo</t>
-  </si>
-  <si>
-    <t>hi-base32Demo</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/hi-base32Demo</t>
-  </si>
-  <si>
-    <t>ijkplayer</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_ijkplayer</t>
-  </si>
-  <si>
-    <t>ImageKnife</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/ImageKnife</t>
-  </si>
-  <si>
-    <t>ImageViewZoom</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_image_view_zoom</t>
-  </si>
-  <si>
-    <t>is-png</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/is-png</t>
-  </si>
-  <si>
-    <t>is-webp</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/is-webp</t>
-  </si>
-  <si>
-    <t>jmustache</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_jmustache</t>
-  </si>
-  <si>
-    <t>jsDiffDemo</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/jsDiffDemo</t>
-  </si>
-  <si>
-    <t>js-md2Demo</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/js-md2Demo</t>
-  </si>
-  <si>
-    <t>js-md5Demo</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/js-md5Demo</t>
-  </si>
-  <si>
-    <t>json-schema</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/json-schema</t>
-  </si>
-  <si>
-    <t>js-sha256Demo</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/js-sha256Demo</t>
-  </si>
-  <si>
-    <t>JsSha1Demo</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/JsSha1Demo</t>
-  </si>
-  <si>
-    <t>lib-token</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/js-tokens</t>
-  </si>
-  <si>
-    <t>juniversalchardet</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/juniversalchardet</t>
-  </si>
-  <si>
-    <t>LargeImage</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/LargeImage</t>
-  </si>
-  <si>
-    <t>levenDemo</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/levenDemo</t>
-  </si>
-  <si>
-    <t>LiveEventBus</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_live_event_bus</t>
-  </si>
-  <si>
-    <t>lottieETS</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/lottieArkTS</t>
-  </si>
-  <si>
-    <t>lz4jsDemo</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/lz4jsDemo</t>
-  </si>
-  <si>
-    <t>ohos_material_dialogs</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_material_dialogs</t>
-  </si>
-  <si>
-    <t>MaterialProgressBar</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_material_progress_bar</t>
-  </si>
-  <si>
-    <t>MetaPhone</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/MetaPhone</t>
-  </si>
-  <si>
-    <t>MMKV</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/MMKV</t>
-  </si>
-  <si>
-    <t>msgpack-javascript</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/msgpack-javascript</t>
-  </si>
-  <si>
-    <t>ohos_disklrucache</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_disklrucache</t>
-  </si>
-  <si>
-    <t>ohos_mqtt</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/ohos_mqtt</t>
-  </si>
-  <si>
-    <t>ohos-gif-drawable</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_gif-drawable</t>
-  </si>
-  <si>
-    <t>ohos_mbassador</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_mbassador</t>
-  </si>
-  <si>
-    <t>ohos_MPChart</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/ohos_mpchart</t>
-  </si>
-  <si>
-    <t>ohos_svg</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_svg</t>
-  </si>
-  <si>
-    <t>ohosutilcode</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/utilCode</t>
-  </si>
-  <si>
-    <t>leap-year</t>
-  </si>
-  <si>
-    <t>imtype</t>
-  </si>
-  <si>
-    <t>randomColor</t>
-  </si>
-  <si>
-    <t>gcoord</t>
-  </si>
-  <si>
-    <t>memory-cache</t>
-  </si>
-  <si>
-    <t>time-ampm</t>
-  </si>
-  <si>
-    <t>okio</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/okio</t>
-  </si>
-  <si>
-    <t>overscroll-decor</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/overscroll-decor</t>
-  </si>
-  <si>
-    <t>pakoDemo</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/pakoDemo</t>
-  </si>
-  <si>
-    <t>PathToRegexpDemo</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/PathToRegexpDemo</t>
-  </si>
-  <si>
-    <t>pinyin4js</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/pinyin4js</t>
-  </si>
-  <si>
-    <t>protobufjs</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/protobuf</t>
-  </si>
-  <si>
-    <t>pcx-js</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/pcx-js</t>
-  </si>
-  <si>
-    <t>pdfViewer</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/pdfViewer</t>
-  </si>
-  <si>
-    <t>percentage-regex</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/percentage-regex</t>
-  </si>
-  <si>
-    <t>PullToRefresh</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_pull_to_refresh</t>
-  </si>
-  <si>
-    <t>qr-code-generator</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/qr-code-generator</t>
-  </si>
-  <si>
-    <t>RoundedImageView</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/RoundedImageView</t>
-  </si>
-  <si>
-    <t>snappyjsDemo</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/snappyjsDemo</t>
-  </si>
-  <si>
-    <t>soundex-code</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/soundex-code</t>
-  </si>
-  <si>
-    <t>subsampling_scale_image_view</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_subsampling_scale_image_view</t>
-  </si>
-  <si>
-    <t>text-encoding</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/textEncodingDemo</t>
-  </si>
-  <si>
-    <t>TextLayoutBuilder</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_text_layout_builder</t>
-  </si>
-  <si>
-    <t>unrar</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/unrar</t>
-  </si>
-  <si>
-    <t>validator.js</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/validator</t>
-  </si>
-  <si>
-    <t>XmlGraphicsBatik</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/XmlGraphicsBatik</t>
-  </si>
-  <si>
-    <t>xslt-processor</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/xslt-processor</t>
-  </si>
-  <si>
-    <t>he</t>
-  </si>
-  <si>
-    <t>zxing</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/zxing</t>
-  </si>
-  <si>
-    <t>zxing-text-encodingDemo</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/zxing-text-encodingDemo</t>
-  </si>
-  <si>
-    <t>inversifyDemo</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/inversifyDemo</t>
-  </si>
-  <si>
-    <t>inversify_inject_decorators-demo</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/inversify_inject_decorators-demo</t>
-  </si>
-  <si>
-    <t>inversify-binding-decorators-demo</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/inversify-binding-decorators-demo</t>
-  </si>
-  <si>
-    <t>amf</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/amf</t>
-  </si>
-  <si>
-    <t>mp4parser</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/mp4parser</t>
-  </si>
-  <si>
-    <t>utf8</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/utf8</t>
-  </si>
-  <si>
-    <t>jama</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/jama</t>
-  </si>
-  <si>
-    <t>banner</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_banner</t>
-  </si>
-  <si>
-    <t>highlightguide</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_highlightguide</t>
-  </si>
-  <si>
-    <t>class-transformer</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/class-transformer</t>
-  </si>
-  <si>
-    <t>mime</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/mime</t>
-  </si>
-  <si>
-    <t>compare-versions</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/compare-versions</t>
-  </si>
-  <si>
-    <t>jsonwebtoken</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_jsonwebtoken</t>
-  </si>
-  <si>
-    <t>dialogs</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/dialogs</t>
-  </si>
-  <si>
-    <t>protobuf_format</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/protobuf_format</t>
-  </si>
-  <si>
-    <t>xml_js</t>
-  </si>
-  <si>
-    <t>sax</t>
-  </si>
-  <si>
-    <t>ohos_video_trimmer</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_video_trimmer</t>
-  </si>
-  <si>
-    <t>ohos_videocompressor</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_videocompressor</t>
-  </si>
-  <si>
-    <t>BasicFtp</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/BasicFtp</t>
-  </si>
-  <si>
-    <t>newsie</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/newsie</t>
-  </si>
-  <si>
-    <t>node-imap</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/node-imap</t>
-  </si>
-  <si>
-    <t>node-pop3</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/node-pop3</t>
-  </si>
-  <si>
-    <t>emailjs</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/emailjs</t>
-  </si>
-  <si>
-    <t>commons-cli</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/commons-cli</t>
-  </si>
-  <si>
-    <t>CircleIndicator</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_circle_indicator</t>
-  </si>
-  <si>
-    <t>dd-plist</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/dd-plist</t>
-  </si>
-  <si>
-    <t>hamcrest</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/Hamcrest</t>
-  </si>
-  <si>
-    <t>jtar</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/jtar</t>
-  </si>
-  <si>
-    <t>ohos-SwipeLayout</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos-SwipeLayout</t>
-  </si>
-  <si>
-    <t>mp3agic</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/mp3agic</t>
-  </si>
-  <si>
-    <t>base64</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_base64</t>
-  </si>
-  <si>
-    <t>node-polyfill</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_polyfill</t>
-  </si>
-  <si>
-    <t>smack</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/ohos_smack</t>
-  </si>
-  <si>
-    <t>epublib</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/epublib</t>
-  </si>
-  <si>
-    <t>pinyin-pro</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/pinyinProDemo</t>
-  </si>
-  <si>
-    <t>base64-js</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/base64-js</t>
-  </si>
-  <si>
-    <t>commonmark</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/commonmark</t>
-  </si>
-  <si>
-    <t>icu4j</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/icu4j</t>
-  </si>
-  <si>
-    <t>LibphoneNumber</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/LibphoneNumber</t>
-  </si>
-  <si>
-    <t>guava</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/lodashDemo</t>
-  </si>
-  <si>
-    <t>creals</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/mathjsDemo</t>
-  </si>
-  <si>
-    <t>node-csv</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/node-csv</t>
-  </si>
-  <si>
-    <t>Drools</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/nodeRulesDemo</t>
-  </si>
-  <si>
-    <t>reflect-metadata</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/reflect-metadata</t>
-  </si>
-  <si>
-    <t>snakeyaml</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/snakeyaml_bak</t>
-  </si>
-  <si>
-    <t>dom4j</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/xml2jsDemo</t>
-  </si>
-  <si>
-    <t>checksum</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_checksum</t>
-  </si>
-  <si>
-    <t>CircleImageView</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/CircleImageView</t>
-  </si>
-  <si>
-    <t>FastBle</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/FastBle</t>
-  </si>
-  <si>
-    <t>flexsearch-ohos</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/flexsearch-ohos</t>
-  </si>
-  <si>
-    <t>jchardet</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/jchardet</t>
-  </si>
-  <si>
-    <t>jwks-rsa</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/jwks-rsa</t>
-  </si>
-  <si>
-    <t>logback</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_logback</t>
-  </si>
-  <si>
-    <t>metadata-extractor</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/metadata-extractor</t>
-  </si>
-  <si>
-    <t>mixpanel-ohos</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/mixpanel-ohos</t>
-  </si>
-  <si>
-    <t>MultiType</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/MultiType</t>
-  </si>
-  <si>
-    <t>commons-fileupload</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_commons-fileupload</t>
-  </si>
-  <si>
-    <t>ohos-autofittextview</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos-autofittextview</t>
-  </si>
-  <si>
-    <t>ohos-PickerView</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos-PickerView</t>
-  </si>
-  <si>
-    <t>okdownload</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/okdownload</t>
-  </si>
-  <si>
-    <t>rebound</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/rebound</t>
-  </si>
-  <si>
-    <t>recyclerview-animators</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/recyclerview-animators</t>
-  </si>
-  <si>
-    <t>retrofit</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/retrofit</t>
-  </si>
-  <si>
-    <t>RocketChat</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/RocketChat</t>
-  </si>
-  <si>
-    <t>shimmer-ohos</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/shimmer-ohos</t>
-  </si>
-  <si>
-    <t>SmartRefreshLayout</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/SmartRefreshLayout</t>
-  </si>
-  <si>
-    <t>stun</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/stun-server</t>
-  </si>
-  <si>
-    <t>thrift</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/thrift</t>
-  </si>
-  <si>
-    <t>vcard</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/VCard</t>
-  </si>
-  <si>
-    <t>vlayout</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_vlayout</t>
-  </si>
-  <si>
-    <t>WheelPicker</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/WheelPicker_bak</t>
-  </si>
-  <si>
-    <t>xutils</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/xutils_bak</t>
-  </si>
-  <si>
-    <t>smbj</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/smbj</t>
-  </si>
-  <si>
-    <t>DanmakuFlameMaster</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_danmaku_flame_master</t>
-  </si>
-  <si>
-    <t>RecyclerViewPager</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/RecyclerViewPager</t>
-  </si>
-  <si>
-    <t>ohos-beacon-library</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos-beacon-library</t>
-  </si>
-  <si>
-    <t>box2d</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/box2d</t>
-  </si>
-  <si>
-    <t>socketio</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/socketio</t>
-  </si>
-  <si>
-    <t>json-bigintDemo</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/json-bigintDemo</t>
-  </si>
-  <si>
-    <t>rxjs</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/RxJS</t>
-  </si>
-  <si>
-    <t>OhosVideoCache</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/OhosVideoCache</t>
-  </si>
-  <si>
-    <t>postcss</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/postcss</t>
-  </si>
-  <si>
-    <t>htmlparser2</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/htmlparser2</t>
-  </si>
-  <si>
-    <t>avro</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/avro</t>
-  </si>
-  <si>
-    <t>Jackrabbit</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/jackrabbit</t>
-  </si>
-  <si>
-    <t>jmespathDemo</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/jmespathDemo</t>
-  </si>
-  <si>
-    <t>js-joda</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/js-joda</t>
-  </si>
-  <si>
-    <t>owasp-java-html-sanitiza</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/sanitize-html</t>
-  </si>
-  <si>
-    <t>htmltoxml</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/jsoup</t>
-  </si>
-  <si>
-    <t>ohos_mail</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/ohos_mail</t>
-  </si>
-  <si>
-    <t>parser-html-json</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/parserHtmlJsonDemo</t>
-  </si>
-  <si>
-    <t>d3-ease</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/d3JsEasingDemo</t>
-  </si>
-  <si>
-    <t>ohos_ntp</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/ohos_ntp</t>
-  </si>
-  <si>
-    <t>eventsource</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/eventsource</t>
-  </si>
-  <si>
-    <t>httpclient</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/httpclient</t>
-  </si>
-  <si>
-    <t>entities</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/entities</t>
-  </si>
-  <si>
-    <t>mdurl</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/mdurl</t>
-  </si>
-  <si>
-    <t>string.prototype.repeat</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/string.prototype.repeat</t>
-  </si>
-  <si>
-    <t>events</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/events</t>
-  </si>
-  <si>
-    <t>timers</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/timers</t>
-  </si>
-  <si>
-    <t>GSYVideoPlayer</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/GSYVideoPlayer</t>
-  </si>
-  <si>
-    <t>mars</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/mars</t>
-  </si>
-  <si>
-    <t>asn1_der</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/asn1Demo</t>
-  </si>
-  <si>
-    <t>underscore</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/underscore</t>
-  </si>
-  <si>
-    <t>is-plain-object</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/is_plain_object</t>
-  </si>
-  <si>
-    <t>pvutils</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/pvutils</t>
-  </si>
-  <si>
-    <t>buffer</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/buffer</t>
-  </si>
-  <si>
-    <t>ieee754</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/ieee754</t>
-  </si>
-  <si>
-    <t>xmlbuilder</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/Xmlbuilder</t>
-  </si>
-  <si>
-    <t>Sax</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/Sax</t>
-  </si>
-  <si>
-    <t>querystringify</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/querystringify</t>
-  </si>
-  <si>
-    <t>requires-port</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/requires-port</t>
-  </si>
-  <si>
-    <t>seedrandom</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/seedrandom</t>
-  </si>
-  <si>
-    <t>lodash.isequal</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/lodash_IsEqual</t>
-  </si>
-  <si>
-    <t>lodash.clonedeep</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/lodash_Clonedeep</t>
-  </si>
-  <si>
-    <t>xmldom</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/xmldom</t>
-  </si>
-  <si>
-    <t>minimist</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/minimist</t>
-  </si>
-  <si>
-    <t>domhandler</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/Domhandler</t>
-  </si>
-  <si>
-    <t>domutils</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/domutils</t>
-  </si>
-  <si>
-    <t>domelementtype</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/domelementtype</t>
-  </si>
-  <si>
-    <t>dom-serializer</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/dom_serializer</t>
-  </si>
-  <si>
-    <t>protobufjs_aspromise</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/protobufjs_aspromise</t>
-  </si>
-  <si>
-    <t>protobufjs_base64</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/protobufjs_base64</t>
-  </si>
-  <si>
-    <t>protobufjs_eventemitter</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/protobufjs_eventemitter</t>
-  </si>
-  <si>
-    <t>protobufjs_float</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/protobufjs_float</t>
-  </si>
-  <si>
-    <t>protobufjs_path</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/protobufjs_path</t>
-  </si>
-  <si>
-    <t>protobufjs_pool</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/protobufjs_pool</t>
-  </si>
-  <si>
-    <t>protobufjs_utf8</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/protobufjs_utf8</t>
-  </si>
-  <si>
-    <t>ohos_apng</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_apng</t>
-  </si>
-  <si>
-    <t>@types/cbor-js</t>
-  </si>
-  <si>
-    <t>amqplib</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/amqplib</t>
-  </si>
-  <si>
-    <t>opencsv</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/opencsv</t>
-  </si>
-  <si>
-    <t>ohos_msgpack</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/ohos_msgpack</t>
-  </si>
-  <si>
-    <t>ohos_libpag</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-sig/ohos_libpag</t>
-  </si>
-  <si>
-    <t>ohos_minizip</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/ohos_minizip</t>
-  </si>
-  <si>
-    <t>ohos_luaarkts</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/openharmony_tpc_samples/tree/master/ohos_luaarkts</t>
-  </si>
-  <si>
-    <t>ohos_ftp_srv</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/ohos_ftp_srv</t>
-  </si>
-  <si>
-    <t>axiosforhttpclient</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openharmony-tpc/httpclient/tree/master/axiosForHttpclient</t>
-  </si>
-  <si>
-    <t>ohos_sdl2</t>
   </si>
   <si>
     <t>ohos_polka</t>
@@ -2601,8 +2604,8 @@
   <sheetPr/>
   <dimension ref="A1:C270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4403,55 +4406,55 @@
         <v>437</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>1</v>
+        <v>438</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B225" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B227" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B228" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B229" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -4459,7 +4462,7 @@
         <v>103</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -4467,7 +4470,7 @@
         <v>437</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -4475,47 +4478,47 @@
         <v>49</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B234" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B235" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B236" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B237" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -4528,250 +4531,250 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B240" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B242" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B243" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B244" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B245" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B246" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B247" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B248" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B249" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B250" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B251" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B252" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B253" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B254" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B255" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B256" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B257" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B258" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B259" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B260" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B261" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B262" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B263" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B264" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B265" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B266" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B267" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B268" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B269" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B270" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
